--- a/xlsx/national-science-challenge-theme.xlsx
+++ b/xlsx/national-science-challenge-theme.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">0101</t>
+    <t xml:space="preserve">00101</t>
   </si>
   <si>
     <t xml:space="preserve">Obesity</t>
@@ -32,31 +32,31 @@
     <t xml:space="preserve">NSC: A Better Start</t>
   </si>
   <si>
-    <t xml:space="preserve">0102</t>
+    <t xml:space="preserve">00102</t>
   </si>
   <si>
     <t xml:space="preserve">Literacy</t>
   </si>
   <si>
-    <t xml:space="preserve">0103</t>
+    <t xml:space="preserve">00103</t>
   </si>
   <si>
     <t xml:space="preserve">Big Data</t>
   </si>
   <si>
-    <t xml:space="preserve">0104</t>
+    <t xml:space="preserve">00104</t>
   </si>
   <si>
     <t xml:space="preserve">Youth Mental Health</t>
   </si>
   <si>
-    <t xml:space="preserve">0105</t>
+    <t xml:space="preserve">00105</t>
   </si>
   <si>
     <t xml:space="preserve">Māori Research</t>
   </si>
   <si>
-    <t xml:space="preserve">0201</t>
+    <t xml:space="preserve">00201</t>
   </si>
   <si>
     <t xml:space="preserve">Enabling independence and autonomy</t>
@@ -65,31 +65,31 @@
     <t xml:space="preserve">NSC: Ageing Well</t>
   </si>
   <si>
-    <t xml:space="preserve">0202</t>
+    <t xml:space="preserve">00202</t>
   </si>
   <si>
     <t xml:space="preserve">Ensuring a meaningful life through social integration and engagement</t>
   </si>
   <si>
-    <t xml:space="preserve">0203</t>
+    <t xml:space="preserve">00203</t>
   </si>
   <si>
     <t xml:space="preserve">Recognising at a societal level the value of ongoing contributions of knowledge and experience of older people</t>
   </si>
   <si>
-    <t xml:space="preserve">0204</t>
+    <t xml:space="preserve">00204</t>
   </si>
   <si>
     <t xml:space="preserve">Reducing disability</t>
   </si>
   <si>
-    <t xml:space="preserve">0205</t>
+    <t xml:space="preserve">00205</t>
   </si>
   <si>
     <t xml:space="preserve">Developing age-friendly environments</t>
   </si>
   <si>
-    <t xml:space="preserve">0301</t>
+    <t xml:space="preserve">00301</t>
   </si>
   <si>
     <t xml:space="preserve">Transforming Homes, Towns and Cities</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">NSC: Building Better Homes, Towns and Cities</t>
   </si>
   <si>
-    <t xml:space="preserve">0302</t>
+    <t xml:space="preserve">00302</t>
   </si>
   <si>
     <t xml:space="preserve">Next Generation Information for Better Outcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">0303</t>
+    <t xml:space="preserve">00303</t>
   </si>
   <si>
     <t xml:space="preserve">Supporting Success in Regional Settlements</t>
   </si>
   <si>
-    <t xml:space="preserve">0304</t>
+    <t xml:space="preserve">00304</t>
   </si>
   <si>
     <t xml:space="preserve">Shaping Places Future Neighbourhoods</t>
   </si>
   <si>
-    <t xml:space="preserve">0305</t>
+    <t xml:space="preserve">00305</t>
   </si>
   <si>
     <t xml:space="preserve">Evolving to Enhance Mauri</t>
   </si>
   <si>
-    <t xml:space="preserve">0306</t>
+    <t xml:space="preserve">00306</t>
   </si>
   <si>
     <t xml:space="preserve">Transforming the Building Industry</t>
   </si>
   <si>
-    <t xml:space="preserve">0401</t>
+    <t xml:space="preserve">00401</t>
   </si>
   <si>
     <t xml:space="preserve">Cancer</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">NSC: Healthier Lives</t>
   </si>
   <si>
-    <t xml:space="preserve">0402</t>
+    <t xml:space="preserve">00402</t>
   </si>
   <si>
     <t xml:space="preserve">Cardiovascular disease</t>
   </si>
   <si>
-    <t xml:space="preserve">0403</t>
+    <t xml:space="preserve">00403</t>
   </si>
   <si>
     <t xml:space="preserve">Diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">0404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0501</t>
+    <t xml:space="preserve">00404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00501</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolic health</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">NSC: High Value Nutrition</t>
   </si>
   <si>
-    <t xml:space="preserve">0502</t>
+    <t xml:space="preserve">00502</t>
   </si>
   <si>
     <t xml:space="preserve">Gastrointestinal health</t>
   </si>
   <si>
-    <t xml:space="preserve">0503</t>
+    <t xml:space="preserve">00503</t>
   </si>
   <si>
     <t xml:space="preserve">Immune health</t>
   </si>
   <si>
-    <t xml:space="preserve">0504</t>
+    <t xml:space="preserve">00504</t>
   </si>
   <si>
     <t xml:space="preserve">Weaning foods for health</t>
   </si>
   <si>
-    <t xml:space="preserve">0601</t>
+    <t xml:space="preserve">00601</t>
   </si>
   <si>
     <t xml:space="preserve">Real-time biological heritage assessment</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">NSC: New Zealand's Biological Heritage</t>
   </si>
   <si>
-    <t xml:space="preserve">0602</t>
+    <t xml:space="preserve">00602</t>
   </si>
   <si>
     <t xml:space="preserve">Reducing risks and threats across landscapes</t>
   </si>
   <si>
-    <t xml:space="preserve">0603</t>
+    <t xml:space="preserve">00603</t>
   </si>
   <si>
     <t xml:space="preserve">Enhancing and restoring resilient ecosystems</t>
   </si>
   <si>
-    <t xml:space="preserve">0701</t>
+    <t xml:space="preserve">00701</t>
   </si>
   <si>
     <t xml:space="preserve">Greater value in global markets</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">NSC: Our Land and Water</t>
   </si>
   <si>
-    <t xml:space="preserve">0702</t>
+    <t xml:space="preserve">00702</t>
   </si>
   <si>
     <t xml:space="preserve">Innovative, resilient land and water use</t>
   </si>
   <si>
-    <t xml:space="preserve">0703</t>
+    <t xml:space="preserve">00703</t>
   </si>
   <si>
     <t xml:space="preserve">Collaborative capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">0704</t>
+    <t xml:space="preserve">00704</t>
   </si>
   <si>
     <t xml:space="preserve">Operating at the nexus</t>
   </si>
   <si>
-    <t xml:space="preserve">0801</t>
+    <t xml:space="preserve">00801</t>
   </si>
   <si>
     <t xml:space="preserve">Rural</t>
@@ -236,61 +236,61 @@
     <t xml:space="preserve">NSC: Resilience to Nature's Challenges</t>
   </si>
   <si>
-    <t xml:space="preserve">0802</t>
+    <t xml:space="preserve">00802</t>
   </si>
   <si>
     <t xml:space="preserve">Urban</t>
   </si>
   <si>
-    <t xml:space="preserve">0803</t>
+    <t xml:space="preserve">00803</t>
   </si>
   <si>
     <t xml:space="preserve">Edge</t>
   </si>
   <si>
-    <t xml:space="preserve">0804</t>
+    <t xml:space="preserve">00804</t>
   </si>
   <si>
     <t xml:space="preserve">Mātauranga Māori</t>
   </si>
   <si>
-    <t xml:space="preserve">0805</t>
+    <t xml:space="preserve">00805</t>
   </si>
   <si>
     <t xml:space="preserve">Governance</t>
   </si>
   <si>
-    <t xml:space="preserve">0806</t>
+    <t xml:space="preserve">00806</t>
   </si>
   <si>
     <t xml:space="preserve">Infrastructure</t>
   </si>
   <si>
-    <t xml:space="preserve">0807</t>
+    <t xml:space="preserve">00807</t>
   </si>
   <si>
     <t xml:space="preserve">Economics</t>
   </si>
   <si>
-    <t xml:space="preserve">0808</t>
+    <t xml:space="preserve">00808</t>
   </si>
   <si>
     <t xml:space="preserve">Culture</t>
   </si>
   <si>
-    <t xml:space="preserve">0809</t>
+    <t xml:space="preserve">00809</t>
   </si>
   <si>
     <t xml:space="preserve">Hazard</t>
   </si>
   <si>
-    <t xml:space="preserve">0810</t>
+    <t xml:space="preserve">00810</t>
   </si>
   <si>
     <t xml:space="preserve">Trajectories</t>
   </si>
   <si>
-    <t xml:space="preserve">0901</t>
+    <t xml:space="preserve">00901</t>
   </si>
   <si>
     <t xml:space="preserve">Vision Mātauranga</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">NSC: Science for Technological Innovation</t>
   </si>
   <si>
-    <t xml:space="preserve">0902</t>
+    <t xml:space="preserve">00902</t>
   </si>
   <si>
     <t xml:space="preserve">Materials, Manufacturing and Design</t>
   </si>
   <si>
-    <t xml:space="preserve">0903</t>
+    <t xml:space="preserve">00903</t>
   </si>
   <si>
     <t xml:space="preserve">Sensors, Robotics and Automation</t>
   </si>
   <si>
-    <t xml:space="preserve">0904</t>
+    <t xml:space="preserve">00904</t>
   </si>
   <si>
     <t xml:space="preserve">IT Data Analytics and Modelling</t>
   </si>
   <si>
-    <t xml:space="preserve">1001</t>
+    <t xml:space="preserve">01001</t>
   </si>
   <si>
     <t xml:space="preserve">Our seas</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">NSC: Sustainable Seas</t>
   </si>
   <si>
-    <t xml:space="preserve">1002</t>
+    <t xml:space="preserve">01002</t>
   </si>
   <si>
     <t xml:space="preserve">Valuable seas</t>
   </si>
   <si>
-    <t xml:space="preserve">1003</t>
+    <t xml:space="preserve">01003</t>
   </si>
   <si>
     <t xml:space="preserve">Tangaroa</t>
   </si>
   <si>
-    <t xml:space="preserve">1004</t>
+    <t xml:space="preserve">01004</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic seas</t>
   </si>
   <si>
-    <t xml:space="preserve">1005</t>
+    <t xml:space="preserve">01005</t>
   </si>
   <si>
     <t xml:space="preserve">Managed seas</t>
   </si>
   <si>
-    <t xml:space="preserve">1006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101</t>
+    <t xml:space="preserve">01006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01101</t>
   </si>
   <si>
     <t xml:space="preserve">Engagement</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">NSC: The Deep South</t>
   </si>
   <si>
-    <t xml:space="preserve">1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1103</t>
+    <t xml:space="preserve">01102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01103</t>
   </si>
   <si>
     <t xml:space="preserve">Impacts and implications</t>
   </si>
   <si>
-    <t xml:space="preserve">1104</t>
+    <t xml:space="preserve">01104</t>
   </si>
   <si>
     <t xml:space="preserve">Earth system modelling and prediction</t>
   </si>
   <si>
-    <t xml:space="preserve">1105</t>
+    <t xml:space="preserve">01105</t>
   </si>
   <si>
     <t xml:space="preserve">Processes and observations</t>

--- a/xlsx/national-science-challenge-theme.xlsx
+++ b/xlsx/national-science-challenge-theme.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -23,364 +26,415 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
+    <t xml:space="preserve">Three_Digit_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three_Digit_Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">00101</t>
   </si>
   <si>
-    <t xml:space="preserve">Obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: A Better Start</t>
+    <t xml:space="preserve">A Better Start: Obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Better Start</t>
   </si>
   <si>
     <t xml:space="preserve">00102</t>
   </si>
   <si>
-    <t xml:space="preserve">Literacy</t>
+    <t xml:space="preserve">A Better Start: Literacy</t>
   </si>
   <si>
     <t xml:space="preserve">00103</t>
   </si>
   <si>
-    <t xml:space="preserve">Big Data</t>
+    <t xml:space="preserve">A Better Start: Big Data</t>
   </si>
   <si>
     <t xml:space="preserve">00104</t>
   </si>
   <si>
-    <t xml:space="preserve">Youth Mental Health</t>
+    <t xml:space="preserve">A Better Start: Youth Mental Health</t>
   </si>
   <si>
     <t xml:space="preserve">00105</t>
   </si>
   <si>
-    <t xml:space="preserve">Māori Research</t>
+    <t xml:space="preserve">A Better Start: Māori Research</t>
   </si>
   <si>
     <t xml:space="preserve">00201</t>
   </si>
   <si>
-    <t xml:space="preserve">Enabling independence and autonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Ageing Well</t>
+    <t xml:space="preserve">Ageing Well: Enabling independence and autonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ageing Well</t>
   </si>
   <si>
     <t xml:space="preserve">00202</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensuring a meaningful life through social integration and engagement</t>
+    <t xml:space="preserve">Ageing Well: Ensuring a meaningful life through social integration and engagement</t>
   </si>
   <si>
     <t xml:space="preserve">00203</t>
   </si>
   <si>
-    <t xml:space="preserve">Recognising at a societal level the value of ongoing contributions of knowledge and experience of older people</t>
+    <t xml:space="preserve">Ageing Well: Recognising at a societal level the value of ongoing contributions of knowledge and experience of older people</t>
   </si>
   <si>
     <t xml:space="preserve">00204</t>
   </si>
   <si>
-    <t xml:space="preserve">Reducing disability</t>
+    <t xml:space="preserve">Ageing Well: Reducing disability</t>
   </si>
   <si>
     <t xml:space="preserve">00205</t>
   </si>
   <si>
-    <t xml:space="preserve">Developing age-friendly environments</t>
+    <t xml:space="preserve">Ageing Well: Developing age-friendly environments</t>
   </si>
   <si>
     <t xml:space="preserve">00301</t>
   </si>
   <si>
-    <t xml:space="preserve">Transforming Homes, Towns and Cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Building Better Homes, Towns and Cities</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Transforming Homes, Towns and Cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities</t>
   </si>
   <si>
     <t xml:space="preserve">00302</t>
   </si>
   <si>
-    <t xml:space="preserve">Next Generation Information for Better Outcomes</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Next Generation Information for Better Outcomes</t>
   </si>
   <si>
     <t xml:space="preserve">00303</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting Success in Regional Settlements</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Supporting Success in Regional Settlements</t>
   </si>
   <si>
     <t xml:space="preserve">00304</t>
   </si>
   <si>
-    <t xml:space="preserve">Shaping Places Future Neighbourhoods</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Shaping Places Future Neighbourhoods</t>
   </si>
   <si>
     <t xml:space="preserve">00305</t>
   </si>
   <si>
-    <t xml:space="preserve">Evolving to Enhance Mauri</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Evolving to Enhance Mauri</t>
   </si>
   <si>
     <t xml:space="preserve">00306</t>
   </si>
   <si>
-    <t xml:space="preserve">Transforming the Building Industry</t>
+    <t xml:space="preserve">Building Better Homes, Towns and Cities: Transforming the Building Industry</t>
   </si>
   <si>
     <t xml:space="preserve">00401</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Healthier Lives</t>
+    <t xml:space="preserve">Healthier Lives: Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthier Lives</t>
   </si>
   <si>
     <t xml:space="preserve">00402</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiovascular disease</t>
+    <t xml:space="preserve">Healthier Lives: Cardiovascular disease</t>
   </si>
   <si>
     <t xml:space="preserve">00403</t>
   </si>
   <si>
-    <t xml:space="preserve">Diabetes</t>
+    <t xml:space="preserve">Healthier Lives: Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">00404</t>
   </si>
   <si>
+    <t xml:space="preserve">Healthier Lives: Obesity</t>
+  </si>
+  <si>
     <t xml:space="preserve">00501</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolic health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: High Value Nutrition</t>
+    <t xml:space="preserve">High Value Nutrition: Metabolic health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Value Nutrition</t>
   </si>
   <si>
     <t xml:space="preserve">00502</t>
   </si>
   <si>
-    <t xml:space="preserve">Gastrointestinal health</t>
+    <t xml:space="preserve">High Value Nutrition: Gastrointestinal health</t>
   </si>
   <si>
     <t xml:space="preserve">00503</t>
   </si>
   <si>
-    <t xml:space="preserve">Immune health</t>
+    <t xml:space="preserve">High Value Nutrition: Immune health</t>
   </si>
   <si>
     <t xml:space="preserve">00504</t>
   </si>
   <si>
-    <t xml:space="preserve">Weaning foods for health</t>
+    <t xml:space="preserve">High Value Nutrition: Weaning foods for health</t>
   </si>
   <si>
     <t xml:space="preserve">00601</t>
   </si>
   <si>
-    <t xml:space="preserve">Real-time biological heritage assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: New Zealand's Biological Heritage</t>
+    <t xml:space="preserve">New Zealand's Biological Heritage: Real-time biological heritage assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand's Biological Heritage</t>
   </si>
   <si>
     <t xml:space="preserve">00602</t>
   </si>
   <si>
-    <t xml:space="preserve">Reducing risks and threats across landscapes</t>
+    <t xml:space="preserve">New Zealand's Biological Heritage: Reducing risks and threats across landscapes</t>
   </si>
   <si>
     <t xml:space="preserve">00603</t>
   </si>
   <si>
-    <t xml:space="preserve">Enhancing and restoring resilient ecosystems</t>
+    <t xml:space="preserve">New Zealand's Biological Heritage: Enhancing and restoring resilient ecosystems</t>
   </si>
   <si>
     <t xml:space="preserve">00701</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater value in global markets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Our Land and Water</t>
+    <t xml:space="preserve">Our Land and Water: Greater value in global markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Land and Water</t>
   </si>
   <si>
     <t xml:space="preserve">00702</t>
   </si>
   <si>
-    <t xml:space="preserve">Innovative, resilient land and water use</t>
+    <t xml:space="preserve">Our Land and Water: Innovative, resilient land and water use</t>
   </si>
   <si>
     <t xml:space="preserve">00703</t>
   </si>
   <si>
-    <t xml:space="preserve">Collaborative capacity</t>
+    <t xml:space="preserve">Our Land and Water: Collaborative capacity</t>
   </si>
   <si>
     <t xml:space="preserve">00704</t>
   </si>
   <si>
-    <t xml:space="preserve">Operating at the nexus</t>
+    <t xml:space="preserve">Our Land and Water: Operating at the nexus</t>
   </si>
   <si>
     <t xml:space="preserve">00801</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Resilience to Nature's Challenges</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience to Nature's Challenges</t>
   </si>
   <si>
     <t xml:space="preserve">00802</t>
   </si>
   <si>
-    <t xml:space="preserve">Urban</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Urban</t>
   </si>
   <si>
     <t xml:space="preserve">00803</t>
   </si>
   <si>
-    <t xml:space="preserve">Edge</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Edge</t>
   </si>
   <si>
     <t xml:space="preserve">00804</t>
   </si>
   <si>
-    <t xml:space="preserve">Mātauranga Māori</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Mātauranga Māori</t>
   </si>
   <si>
     <t xml:space="preserve">00805</t>
   </si>
   <si>
-    <t xml:space="preserve">Governance</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Governance</t>
   </si>
   <si>
     <t xml:space="preserve">00806</t>
   </si>
   <si>
-    <t xml:space="preserve">Infrastructure</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Infrastructure</t>
   </si>
   <si>
     <t xml:space="preserve">00807</t>
   </si>
   <si>
-    <t xml:space="preserve">Economics</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Economics</t>
   </si>
   <si>
     <t xml:space="preserve">00808</t>
   </si>
   <si>
-    <t xml:space="preserve">Culture</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Culture</t>
   </si>
   <si>
     <t xml:space="preserve">00809</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazard</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Hazard</t>
   </si>
   <si>
     <t xml:space="preserve">00810</t>
   </si>
   <si>
-    <t xml:space="preserve">Trajectories</t>
+    <t xml:space="preserve">Resilience to Nature's Challenges: Trajectories</t>
   </si>
   <si>
     <t xml:space="preserve">00901</t>
   </si>
   <si>
-    <t xml:space="preserve">Vision Mātauranga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Science for Technological Innovation</t>
+    <t xml:space="preserve">Science for Technological Innovation: Vision Mātauranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science for Technological Innovation</t>
   </si>
   <si>
     <t xml:space="preserve">00902</t>
   </si>
   <si>
-    <t xml:space="preserve">Materials, Manufacturing and Design</t>
+    <t xml:space="preserve">Science for Technological Innovation: Materials, Manufacturing and Design</t>
   </si>
   <si>
     <t xml:space="preserve">00903</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensors, Robotics and Automation</t>
+    <t xml:space="preserve">Science for Technological Innovation: Sensors, Robotics and Automation</t>
   </si>
   <si>
     <t xml:space="preserve">00904</t>
   </si>
   <si>
-    <t xml:space="preserve">IT Data Analytics and Modelling</t>
+    <t xml:space="preserve">Science for Technological Innovation: IT Data Analytics and Modelling</t>
   </si>
   <si>
     <t xml:space="preserve">01001</t>
   </si>
   <si>
-    <t xml:space="preserve">Our seas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: Sustainable Seas</t>
+    <t xml:space="preserve">Sustainable Seas: Our seas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable Seas</t>
   </si>
   <si>
     <t xml:space="preserve">01002</t>
   </si>
   <si>
-    <t xml:space="preserve">Valuable seas</t>
+    <t xml:space="preserve">Sustainable Seas: Valuable seas</t>
   </si>
   <si>
     <t xml:space="preserve">01003</t>
   </si>
   <si>
-    <t xml:space="preserve">Tangaroa</t>
+    <t xml:space="preserve">Sustainable Seas: Tangaroa</t>
   </si>
   <si>
     <t xml:space="preserve">01004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic seas</t>
+    <t xml:space="preserve">Sustainable Seas: Dynamic seas</t>
   </si>
   <si>
     <t xml:space="preserve">01005</t>
   </si>
   <si>
-    <t xml:space="preserve">Managed seas</t>
+    <t xml:space="preserve">Sustainable Seas: Managed seas</t>
   </si>
   <si>
     <t xml:space="preserve">01006</t>
   </si>
   <si>
+    <t xml:space="preserve">Sustainable Seas: Vision Mātauranga</t>
+  </si>
+  <si>
     <t xml:space="preserve">01101</t>
   </si>
   <si>
-    <t xml:space="preserve">Engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSC: The Deep South</t>
+    <t xml:space="preserve">The Deep South: Engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Deep South</t>
   </si>
   <si>
     <t xml:space="preserve">01102</t>
   </si>
   <si>
+    <t xml:space="preserve">The Deep South: Vision Mātauranga</t>
+  </si>
+  <si>
     <t xml:space="preserve">01103</t>
   </si>
   <si>
-    <t xml:space="preserve">Impacts and implications</t>
+    <t xml:space="preserve">The Deep South: Impacts and implications</t>
   </si>
   <si>
     <t xml:space="preserve">01104</t>
   </si>
   <si>
-    <t xml:space="preserve">Earth system modelling and prediction</t>
+    <t xml:space="preserve">The Deep South: Earth system modelling and prediction</t>
   </si>
   <si>
     <t xml:space="preserve">01105</t>
   </si>
   <si>
-    <t xml:space="preserve">Processes and observations</t>
+    <t xml:space="preserve">The Deep South: Processes and observations</t>
   </si>
 </sst>
 </file>
@@ -710,7 +764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -722,16 +776,34 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -739,604 +811,1099 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
-        <v>73</v>
+      <c r="F39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
